--- a/Excel/TI/Mon_TI_2024_03_24.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL26"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,16 +644,16 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>42.6</v>
+        <v>41.6</v>
       </c>
       <c r="G2" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="H2" t="n">
         <v>51.3</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -665,22 +665,22 @@
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
+        <v>50</v>
+      </c>
+      <c r="O2" t="n">
         <v>26</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>55</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>40</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>37</v>
-      </c>
-      <c r="R2" t="n">
-        <v>55</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -784,7 +784,11 @@
           <t>Anthony Edwards</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>G</t>
@@ -936,16 +940,16 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>32.2</v>
+        <v>37.4</v>
       </c>
       <c r="G4" t="n">
-        <v>36.2</v>
+        <v>37.7</v>
       </c>
       <c r="H4" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -957,30 +961,30 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
+        <v>57</v>
+      </c>
+      <c r="O4" t="n">
         <v>44</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>20</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>32</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>34</v>
       </c>
-      <c r="R4" t="n">
-        <v>31</v>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>-1.8</v>
+        <v>-2.1</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -996,29 +1000,27 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z4" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
         <v>12</v>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD4" t="n">
         <v>9</v>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1072,7 +1074,11 @@
           <t>Bam Adebayo</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>C</t>
@@ -1103,17 +1109,19 @@
       <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>45</v>
-      </c>
-      <c r="O5" t="n">
-        <v>44</v>
       </c>
       <c r="P5" t="n">
         <v>44</v>
       </c>
       <c r="Q5" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R5" t="n">
         <v>35</v>
@@ -1212,61 +1220,59 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="G6" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="H6" t="n">
-        <v>35.9</v>
+        <v>31.2</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="O6" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P6" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="n">
-        <v>21</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1274,7 +1280,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1285,7 +1291,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1325,7 +1331,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1335,17 +1341,17 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1355,19 +1361,19 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NYK</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1378,16 +1384,16 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>39.6</v>
+        <v>24.2</v>
       </c>
       <c r="G7" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="H7" t="n">
-        <v>35.4</v>
+        <v>31.5</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -1396,25 +1402,27 @@
         <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>57</v>
-      </c>
-      <c r="O7" t="n">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="R7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1422,7 +1430,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1433,18 +1441,16 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>24</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -1468,12 +1474,12 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1483,7 +1489,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1493,29 +1499,29 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MEM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1526,73 +1532,73 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="G8" t="n">
-        <v>32.3</v>
+        <v>33.1</v>
       </c>
       <c r="H8" t="n">
-        <v>31.5</v>
+        <v>35.4</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="O8" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="P8" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Q8" t="n">
+        <v>37</v>
+      </c>
+      <c r="R8" t="n">
         <v>21</v>
       </c>
-      <c r="R8" t="n">
-        <v>29</v>
-      </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>-0.9</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z8" t="n">
-        <v>24</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1621,17 +1627,17 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1641,95 +1647,95 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>23.4</v>
+        <v>41</v>
       </c>
       <c r="G9" t="n">
-        <v>31.9</v>
+        <v>32.9</v>
       </c>
       <c r="H9" t="n">
-        <v>30.7</v>
+        <v>31.5</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
       <c r="N9" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O9" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P9" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="R9" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1764,32 +1770,32 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -1799,7 +1805,7 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHA</t>
         </is>
       </c>
     </row>
@@ -1822,22 +1828,22 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>34.4</v>
+        <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="H10" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -1846,27 +1852,27 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
+        <v>26</v>
+      </c>
+      <c r="O10" t="n">
         <v>16</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>21</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>36</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>61</v>
       </c>
-      <c r="R10" t="n">
-        <v>38</v>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -2100,12 +2106,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2116,85 +2122,79 @@
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>39.6</v>
+        <v>32.6</v>
       </c>
       <c r="G12" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>31.3</v>
+        <v>24.7</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9</v>
+      </c>
+      <c r="M12" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
       <c r="N12" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O12" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="n">
-        <v>32</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>37</v>
+      </c>
+      <c r="R12" t="n">
+        <v>31</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>7</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>10</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2208,12 +2208,12 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -2243,70 +2243,74 @@
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>30.8</v>
+        <v>24.8</v>
       </c>
       <c r="G13" t="n">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="H13" t="n">
-        <v>24.4</v>
+        <v>31.3</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
         <v>4</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9</v>
-      </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="O13" t="n">
-        <v>32</v>
-      </c>
-      <c r="P13" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R13" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T13" t="n">
@@ -2316,29 +2320,33 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z13" t="n">
-        <v>7</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v>10</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2352,12 +2360,12 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2367,39 +2375,39 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
           <t>ORL</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
         <is>
           <t>CHA</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2410,66 +2418,62 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>24.4</v>
+        <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>28.7</v>
+        <v>26.5</v>
       </c>
       <c r="H14" t="n">
-        <v>31.2</v>
+        <v>34.5</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>19</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="O14" t="n">
+        <v>23</v>
+      </c>
+      <c r="P14" t="n">
+        <v>14</v>
       </c>
       <c r="Q14" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R14" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>-0.1</v>
+        <v>1.9</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2504,12 +2508,12 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -2519,39 +2523,39 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>BKN</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2562,77 +2566,73 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>22.8</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="H15" t="n">
-        <v>34.2</v>
+        <v>25.3</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>24</v>
+      </c>
+      <c r="O15" t="n">
         <v>5</v>
       </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>33</v>
-      </c>
-      <c r="O15" t="n">
-        <v>42</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P15" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>28</v>
+      </c>
+      <c r="R15" t="n">
+        <v>30</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>-1.3</v>
+        <v>0.7</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z15" t="n">
-        <v>46</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
@@ -2691,66 +2691,76 @@
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BKN</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Khris Middleton</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Day-To-Day</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>28.8</v>
       </c>
       <c r="G16" t="n">
-        <v>26.5</v>
+        <v>25.9</v>
       </c>
       <c r="H16" t="n">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
-      <c r="N16" t="n">
-        <v>24</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="P16" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>28</v>
-      </c>
-      <c r="R16" t="n">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -2758,7 +2768,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2769,7 +2779,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2804,12 +2814,12 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -2819,7 +2829,7 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -2829,7 +2839,7 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -2839,19 +2849,19 @@
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2862,43 +2872,47 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>26.6</v>
+        <v>29.2</v>
       </c>
       <c r="G17" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O17" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="P17" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>33</v>
-      </c>
-      <c r="R17" t="n">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2906,7 +2920,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>-1.1</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2917,18 +2931,16 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>46</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -2957,7 +2969,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -2967,39 +2979,39 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -3010,91 +3022,79 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>24.7</v>
+        <v>21.4</v>
       </c>
       <c r="H18" t="n">
-        <v>23.6</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
-        <v>36</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="O18" t="n">
+        <v>9</v>
+      </c>
+      <c r="P18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>24</v>
+      </c>
+      <c r="R18" t="n">
+        <v>26</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>4</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>7</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3108,12 +3108,12 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -3143,26 +3143,22 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Gordon Hayward</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>F</t>
@@ -3170,44 +3166,40 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>17.2</v>
+        <v>13.6</v>
       </c>
       <c r="G19" t="n">
-        <v>22.8</v>
+        <v>9.4</v>
       </c>
       <c r="H19" t="n">
-        <v>27.7</v>
+        <v>18.4</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>14</v>
+      </c>
+      <c r="O19" t="n">
+        <v>9</v>
       </c>
       <c r="P19" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="R19" t="n">
         <v>15</v>
@@ -3218,7 +3210,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -3229,18 +3221,16 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>-4</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -3269,7 +3259,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3279,17 +3269,17 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -3299,66 +3289,76 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NYK</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Donovan Mitchell</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>18.8</v>
+        <v>23.6</v>
       </c>
       <c r="G20" t="n">
-        <v>19.9</v>
+        <v>38.9</v>
       </c>
       <c r="H20" t="n">
-        <v>17.6</v>
+        <v>38.8</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q20" t="n">
-        <v>26</v>
-      </c>
-      <c r="R20" t="n">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.3</v>
+        <v>-4.5</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3377,24 +3377,26 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB20" t="n">
-        <v>7</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -3408,12 +3410,12 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3423,17 +3425,17 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
@@ -3443,66 +3445,80 @@
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>Evan Mobley</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>12.6</v>
+        <v>32.4</v>
       </c>
       <c r="G21" t="n">
-        <v>9.699999999999999</v>
+        <v>33.3</v>
       </c>
       <c r="H21" t="n">
-        <v>18.6</v>
+        <v>32.2</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>11</v>
-      </c>
-      <c r="P21" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>15</v>
-      </c>
-      <c r="R21" t="n">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -3510,7 +3526,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3521,7 +3537,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3530,7 +3546,7 @@
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>-4</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -3554,22 +3570,22 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -3579,7 +3595,7 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
@@ -3589,19 +3605,19 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DEN</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3611,30 +3627,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>23.6</v>
+        <v>27.8</v>
       </c>
       <c r="G22" t="n">
-        <v>38.9</v>
+        <v>31.1</v>
       </c>
       <c r="H22" t="n">
-        <v>38.8</v>
+        <v>35</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -3644,11 +3660,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O22" t="n">
-        <v>12</v>
-      </c>
-      <c r="P22" t="n">
-        <v>15</v>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -3662,22 +3682,22 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>-4.5</v>
+        <v>-2.2</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3686,17 +3706,15 @@
         </is>
       </c>
       <c r="Z22" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>46</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -3715,7 +3733,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -3725,7 +3743,7 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -3735,29 +3753,29 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3767,33 +3785,33 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>32.4</v>
+        <v>17.2</v>
       </c>
       <c r="G23" t="n">
-        <v>33.3</v>
+        <v>22.8</v>
       </c>
       <c r="H23" t="n">
-        <v>32.2</v>
+        <v>27.7</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
         <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -3810,15 +3828,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q23" t="n">
+        <v>25</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3826,7 +3840,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3837,16 +3851,18 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z23" t="n">
-        <v>29</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -3870,32 +3886,32 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
@@ -3905,19 +3921,19 @@
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3927,33 +3943,33 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>27.8</v>
+        <v>28.4</v>
       </c>
       <c r="G24" t="n">
-        <v>31.1</v>
+        <v>22.3</v>
       </c>
       <c r="H24" t="n">
-        <v>35</v>
+        <v>26.8</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
-        <v>3</v>
-      </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -3986,7 +4002,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>-2.2</v>
+        <v>1.5</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -3997,63 +4013,67 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
           <t>GSW</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z24" t="n">
-        <v>43</v>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB24" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
@@ -4063,19 +4083,19 @@
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NYK</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4090,22 +4110,22 @@
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>28.4</v>
+        <v>7.8</v>
       </c>
       <c r="G25" t="n">
-        <v>22.3</v>
+        <v>13</v>
       </c>
       <c r="H25" t="n">
-        <v>26.8</v>
+        <v>18.7</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" t="n">
         <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -4144,7 +4164,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -4155,7 +4175,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -4195,17 +4215,17 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -4215,177 +4235,15 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Russell Westbrook</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="G26" t="n">
-        <v>13</v>
-      </c>
-      <c r="H26" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
         <is>
           <t>CHA</t>
         </is>
